--- a/TestProject/TestProject/wwwroot/upload/Users.xlsx
+++ b/TestProject/TestProject/wwwroot/upload/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정동구\Downloads\TestProject\TestProject\wwwroot\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB865373-B243-4142-91B0-4FDD375D5D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74989ED-1F41-4B43-97A6-AA236DFB3C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9943" yWindow="2177" windowWidth="16457" windowHeight="9549" xr2:uid="{6C01981F-C69C-4E22-9D0C-FDBE4249AFD3}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{6C01981F-C69C-4E22-9D0C-FDBE4249AFD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>555-5566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim@abc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>555-5555</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,13 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67426241-F661-4EA9-8EF5-D34284A2CF80}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="14.35546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -525,7 +540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -534,6 +549,17 @@
       </c>
       <c r="C5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -543,8 +569,9 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{F6A28CEE-8BFB-41F8-842E-D4531BB4D213}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{4D665BD3-1CBD-4AEC-8318-52C25FD99940}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{616180DB-8852-432F-B4ED-914ACCF410D7}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{A24C41AD-6D8F-433E-98C2-7602F7D79B09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>